--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +546,10 @@
         <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.38723566666667</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N2">
-        <v>94.16170700000001</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q2">
-        <v>2.288725837577667</v>
+        <v>2.169973211226333</v>
       </c>
       <c r="R2">
-        <v>20.598532538199</v>
+        <v>19.529758901037</v>
       </c>
       <c r="S2">
-        <v>0.05630358358479538</v>
+        <v>0.07312725609137966</v>
       </c>
       <c r="T2">
-        <v>0.05630358358479539</v>
+        <v>0.07312725609137964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +608,10 @@
         <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +626,10 @@
         <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q3">
         <v>1.280111299056333</v>
@@ -632,10 +638,10 @@
         <v>11.521001691507</v>
       </c>
       <c r="S3">
-        <v>0.03149125698713726</v>
+        <v>0.04313925458031719</v>
       </c>
       <c r="T3">
-        <v>0.03149125698713726</v>
+        <v>0.04313925458031718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,45 +670,45 @@
         <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.717279333333334</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N4">
-        <v>23.151838</v>
+        <v>0.426419</v>
       </c>
       <c r="O4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q4">
-        <v>0.5627362917073333</v>
+        <v>0.01036468235366667</v>
       </c>
       <c r="R4">
-        <v>5.064626625366</v>
+        <v>0.093282141183</v>
       </c>
       <c r="S4">
-        <v>0.01384354094148529</v>
+        <v>0.0003492857777511665</v>
       </c>
       <c r="T4">
-        <v>0.01384354094148529</v>
+        <v>0.0003492857777511664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,25 +717,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6445166666666666</v>
+        <v>0.072919</v>
       </c>
       <c r="H5">
-        <v>1.93355</v>
+        <v>0.218757</v>
       </c>
       <c r="I5">
-        <v>0.8983616184865821</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J5">
-        <v>0.898361618486582</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.38723566666667</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N5">
-        <v>94.16170700000001</v>
+        <v>37.286186</v>
       </c>
       <c r="O5">
-        <v>0.5539598599114094</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P5">
-        <v>0.5539598599114095</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q5">
-        <v>20.22959650776111</v>
+        <v>0.9062904656446666</v>
       </c>
       <c r="R5">
-        <v>182.06636856985</v>
+        <v>8.156614190802001</v>
       </c>
       <c r="S5">
-        <v>0.497656276326614</v>
+        <v>0.03054163739510822</v>
       </c>
       <c r="T5">
-        <v>0.4976562763266141</v>
+        <v>0.03054163739510822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,25 +779,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6445166666666666</v>
+        <v>0.072919</v>
       </c>
       <c r="H6">
-        <v>1.93355</v>
+        <v>0.218757</v>
       </c>
       <c r="I6">
-        <v>0.8983616184865821</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J6">
-        <v>0.898361618486582</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.55525033333333</v>
+        <v>0.251329</v>
       </c>
       <c r="N6">
-        <v>52.665751</v>
+        <v>0.753987</v>
       </c>
       <c r="O6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q6">
-        <v>11.31465142733889</v>
+        <v>0.018326659351</v>
       </c>
       <c r="R6">
-        <v>101.83186284605</v>
+        <v>0.164939934159</v>
       </c>
       <c r="S6">
-        <v>0.2783450127194981</v>
+        <v>0.0006176013163326885</v>
       </c>
       <c r="T6">
-        <v>0.278345012719498</v>
+        <v>0.0006176013163326884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.420527</v>
+      </c>
+      <c r="H7">
+        <v>1.261581</v>
+      </c>
+      <c r="I7">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J7">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>29.75868033333333</v>
+      </c>
+      <c r="N7">
+        <v>89.27604099999999</v>
+      </c>
+      <c r="O7">
+        <v>0.4948552779010537</v>
+      </c>
+      <c r="P7">
+        <v>0.4948552779010535</v>
+      </c>
+      <c r="Q7">
+        <v>12.51432856453567</v>
+      </c>
+      <c r="R7">
+        <v>112.628957080821</v>
+      </c>
+      <c r="S7">
+        <v>0.4217280218096739</v>
+      </c>
+      <c r="T7">
+        <v>0.4217280218096739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.6445166666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.93355</v>
-      </c>
-      <c r="I7">
-        <v>0.8983616184865821</v>
-      </c>
-      <c r="J7">
-        <v>0.898361618486582</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.717279333333334</v>
-      </c>
-      <c r="N7">
-        <v>23.151838</v>
-      </c>
-      <c r="O7">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="P7">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="Q7">
-        <v>4.973915151655556</v>
-      </c>
-      <c r="R7">
-        <v>44.7652363649</v>
-      </c>
-      <c r="S7">
-        <v>0.1223603294404699</v>
-      </c>
-      <c r="T7">
-        <v>0.1223603294404699</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.420527</v>
+      </c>
+      <c r="H8">
+        <v>1.261581</v>
+      </c>
+      <c r="I8">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J8">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N8">
+        <v>52.665751</v>
+      </c>
+      <c r="O8">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P8">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q8">
+        <v>7.382456756925667</v>
+      </c>
+      <c r="R8">
+        <v>66.44211081233101</v>
+      </c>
+      <c r="S8">
+        <v>0.2487859311139353</v>
+      </c>
+      <c r="T8">
+        <v>0.2487859311139352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.420527</v>
+      </c>
+      <c r="H9">
+        <v>1.261581</v>
+      </c>
+      <c r="I9">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J9">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.426419</v>
+      </c>
+      <c r="O9">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P9">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q9">
+        <v>0.05977356760433334</v>
+      </c>
+      <c r="R9">
+        <v>0.5379621084390001</v>
+      </c>
+      <c r="S9">
+        <v>0.002014346058782551</v>
+      </c>
+      <c r="T9">
+        <v>0.00201434605878255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.420527</v>
+      </c>
+      <c r="H10">
+        <v>1.261581</v>
+      </c>
+      <c r="I10">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J10">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N10">
+        <v>37.286186</v>
+      </c>
+      <c r="O10">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P10">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q10">
+        <v>5.226615980007334</v>
+      </c>
+      <c r="R10">
+        <v>47.039543820066</v>
+      </c>
+      <c r="S10">
+        <v>0.1761349325807084</v>
+      </c>
+      <c r="T10">
+        <v>0.1761349325807084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.420527</v>
+      </c>
+      <c r="H11">
+        <v>1.261581</v>
+      </c>
+      <c r="I11">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J11">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.251329</v>
+      </c>
+      <c r="N11">
+        <v>0.753987</v>
+      </c>
+      <c r="O11">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P11">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q11">
+        <v>0.105690630383</v>
+      </c>
+      <c r="R11">
+        <v>0.951215673447</v>
+      </c>
+      <c r="S11">
+        <v>0.003561733276010869</v>
+      </c>
+      <c r="T11">
+        <v>0.003561733276010868</v>
       </c>
     </row>
   </sheetData>
